--- a/data/trans_camb/P16A06-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P16A06-Dificultad-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>-0.5647535307758813</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8.073093924781263</v>
+        <v>8.073093924781265</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>1.773391960219207</v>
@@ -664,7 +664,7 @@
         <v>0.9985208744489895</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>8.580365782222559</v>
+        <v>8.580365782222561</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.880946192803031</v>
+        <v>-2.83713160327249</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.218847312751564</v>
+        <v>-2.310726808642666</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4.917997071326811</v>
+        <v>5.361434027595123</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.562609187573084</v>
+        <v>-0.5346452692614246</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.5561580272337284</v>
+        <v>0.5067620261383606</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>6.46908694739587</v>
+        <v>6.097668432955412</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-1.618250479604697</v>
+        <v>-1.591746724922888</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-0.5781448013987408</v>
+        <v>-0.6075568526761584</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>6.237520009261349</v>
+        <v>6.562653824240703</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.5428640771820655</v>
+        <v>0.5057184802974652</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.283360879821082</v>
+        <v>1.177329880396415</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>11.18817114704042</v>
+        <v>11.87942584149006</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.302274039730217</v>
+        <v>4.428793874965229</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>5.750535637438515</v>
+        <v>5.566733774505801</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>12.48503709494765</v>
+        <v>12.41446946248425</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>1.615967166201798</v>
+        <v>1.659923343243809</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>2.682738281740292</v>
+        <v>2.582748396775097</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>10.6954822993232</v>
+        <v>11.22476884380013</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>-0.1841127348776752</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>2.631872702723615</v>
+        <v>2.631872702723616</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.2398460390796695</v>
@@ -769,7 +769,7 @@
         <v>0.1746801558581116</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>1.501039858566134</v>
+        <v>1.501039858566135</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.6892198255498968</v>
+        <v>-0.7029431686256706</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.5254466957142068</v>
+        <v>-0.5555836414778931</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>1.216274715830815</v>
+        <v>1.258473698389945</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.0712464867560007</v>
+        <v>-0.06675817308943208</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.06665872160641267</v>
+        <v>0.06305612808455532</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7268944847560822</v>
+        <v>0.6564929178399126</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.2465899924922913</v>
+        <v>-0.238264708877358</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.09924298668795656</v>
+        <v>-0.0944661749683391</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.9135706799235058</v>
+        <v>0.9601745093652316</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.3443058477446213</v>
+        <v>0.2898085183215865</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.6821913206846116</v>
+        <v>0.5285139744013435</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>5.169984034119304</v>
+        <v>5.509718586730679</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.7010146169842192</v>
+        <v>0.7154636322245913</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.9790309621331132</v>
+        <v>0.9116695985469387</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.951193830777606</v>
+        <v>1.989339594314873</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3440737622193286</v>
+        <v>0.3426826410296782</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.5530781902373242</v>
+        <v>0.5497149205927444</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>2.169442694831373</v>
+        <v>2.311360585295926</v>
       </c>
     </row>
     <row r="10">
@@ -878,7 +878,7 @@
         <v>1.973051389459556</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>5.921965463815313</v>
+        <v>5.921965463815311</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.9288161437461261</v>
+        <v>-0.9435755779200276</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.2243928539004464</v>
+        <v>-0.3731463998391314</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.026563904902475</v>
+        <v>1.990709720684911</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.3480488268432987</v>
+        <v>0.1873581555892777</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.7056770042584524</v>
+        <v>0.8359816026011084</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>6.051856506138016</v>
+        <v>5.771395203967873</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.07239855212968964</v>
+        <v>0.12692516395009</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.7831765535510593</v>
+        <v>0.7471653694524382</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>4.660237750375589</v>
+        <v>4.576060941668084</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.74761458239431</v>
+        <v>1.53670005654969</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.395152146450062</v>
+        <v>2.441659413628229</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5.062166707042295</v>
+        <v>4.970621737870821</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.167255031293895</v>
+        <v>3.906514274800399</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>5.152583008158595</v>
+        <v>4.846248973801729</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>9.819910622071076</v>
+        <v>9.743246995384247</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>2.417781911478654</v>
+        <v>2.438305810614954</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>3.19443623472297</v>
+        <v>3.240583239314347</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>7.052434085431171</v>
+        <v>7.240191105254826</v>
       </c>
     </row>
     <row r="13">
@@ -983,7 +983,7 @@
         <v>0.7419711761838895</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>2.226970723611499</v>
+        <v>2.226970723611498</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.4528566640665327</v>
+        <v>-0.4646870408433717</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.1435506177032621</v>
+        <v>-0.1930623970247715</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.7615791876978444</v>
+        <v>0.7728102248465579</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.07364714260743536</v>
+        <v>0.0328715865969007</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1531121671848835</v>
+        <v>0.1538382064810379</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>1.301024834425215</v>
+        <v>1.202296103740184</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01063034322372259</v>
+        <v>0.01802614072617316</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.2408070079913409</v>
+        <v>0.209488251404127</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>1.392171679605498</v>
+        <v>1.416642940059534</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.42462064351056</v>
+        <v>1.297202770186822</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>2.01956799177865</v>
+        <v>2.09191142362486</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>4.152092562452304</v>
+        <v>4.437031219001435</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.48233920439719</v>
+        <v>1.291464454087592</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.819678261774111</v>
+        <v>1.577840370473008</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>3.650628379531327</v>
+        <v>3.314077364729313</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.007684304360113</v>
+        <v>1.094051655549705</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.461708359961451</v>
+        <v>1.454683329438496</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>3.312812352841181</v>
+        <v>3.508730534734004</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>0.7183701553927412</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2.544559333602682</v>
+        <v>2.544559333602681</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>2.588206035948952</v>
@@ -1092,7 +1092,7 @@
         <v>1.943599512802708</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>4.397076926924262</v>
+        <v>4.397076926924264</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.9582018484947308</v>
+        <v>-1.023283898711569</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.6694144895839867</v>
+        <v>-0.4874413821390992</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.250932293981705</v>
+        <v>1.178406322544137</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.8537199861222589</v>
+        <v>0.9931213052480837</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>1.477634102874817</v>
+        <v>1.264008425530007</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>4.542986150156302</v>
+        <v>4.537279489273679</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.377775911577359</v>
+        <v>0.3578143044848221</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.8417514560309038</v>
+        <v>0.8174993616197723</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>3.379885662832083</v>
+        <v>3.309604981500909</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.415316640559776</v>
+        <v>1.365494064772335</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.093746253876293</v>
+        <v>2.232483904470756</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.03373413387614</v>
+        <v>3.960366997768503</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4.366856962073397</v>
+        <v>4.47188710025824</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>5.360657333655362</v>
+        <v>5.151433615551032</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>7.868155878131314</v>
+        <v>7.798154531139308</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>2.425799479430799</v>
+        <v>2.451851202472319</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>3.124287616218797</v>
+        <v>3.127432142531478</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>5.570154206595124</v>
+        <v>5.453285091550039</v>
       </c>
     </row>
     <row r="19">
@@ -1197,7 +1197,7 @@
         <v>1.078677849123323</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>2.440332718094229</v>
+        <v>2.44033271809423</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.5005836874464105</v>
+        <v>-0.5261580088987889</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.3241937687787845</v>
+        <v>-0.2711872534744507</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.5049701074280541</v>
+        <v>0.4596018082491184</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.2519261484881333</v>
+        <v>0.2877127971421211</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.508020838410448</v>
+        <v>0.461685045129385</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>1.536454586270172</v>
+        <v>1.512295520241567</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1545856878333682</v>
+        <v>0.1499245243186098</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.3809663242068896</v>
+        <v>0.3524094121743911</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>1.434779822347328</v>
+        <v>1.473635112218267</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.397365163128753</v>
+        <v>1.317832322888158</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.998097950197161</v>
+        <v>2.183414928881495</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>3.838071433675864</v>
+        <v>3.868361546856605</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>2.864412896325774</v>
+        <v>2.883275287276569</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>3.451119963938096</v>
+        <v>3.267993794249664</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>5.74999662279029</v>
+        <v>5.6108245535646</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.689462159451982</v>
+        <v>1.748866496461767</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>2.213736580919662</v>
+        <v>2.157996516207729</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>4.148110200061786</v>
+        <v>3.861169039474748</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         <v>2.754325589802966</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>4.169475443681939</v>
+        <v>4.169475443681936</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>0.7036737531878289</v>
@@ -1306,7 +1306,7 @@
         <v>1.957426437586194</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>2.725514542486163</v>
+        <v>2.725514542486161</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.9115866811953425</v>
+        <v>-1.104964237985376</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.6822045670337525</v>
+        <v>-0.9355323370067768</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.4333166508154945</v>
+        <v>-0.5057885733192787</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-2.217935900819722</v>
+        <v>-1.926531319703672</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.04995235375197193</v>
+        <v>-0.0623095625327092</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>1.818162548195893</v>
+        <v>1.622986943833453</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-0.7896092526826058</v>
+        <v>-0.8061956730502526</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.3510680238101714</v>
+        <v>0.307214080809289</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>1.39465831474723</v>
+        <v>1.240370722307567</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.132661402496115</v>
+        <v>3.054809924212894</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2.88257438299664</v>
+        <v>3.167248696030966</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.752562690918242</v>
+        <v>2.971259998583599</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2.651846412144272</v>
+        <v>2.640930358220564</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>5.462022692140695</v>
+        <v>5.419149209052187</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>6.17794073524581</v>
+        <v>6.005602867043925</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>2.208201284894224</v>
+        <v>2.145891935038336</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>3.715690132551451</v>
+        <v>3.658870591941124</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>3.933859726070549</v>
+        <v>4.02691682339074</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>0.960532473718916</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>1.454046165368773</v>
+        <v>1.454046165368772</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.2911671536495219</v>
@@ -1411,7 +1411,7 @@
         <v>0.8099467711113624</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>1.127767389320613</v>
+        <v>1.127767389320612</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.3612394902581567</v>
+        <v>-0.3960212921904159</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.271349656178491</v>
+        <v>-0.3975437587417864</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.1651271104716619</v>
+        <v>-0.189135806344216</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.5275179989718902</v>
+        <v>-0.4976731599932575</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.08654412284433237</v>
+        <v>-0.05316109686975212</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3950183757591019</v>
+        <v>0.3171000927395413</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.2785918929645466</v>
+        <v>-0.2987025265145021</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.1029606952839399</v>
+        <v>0.07953559198853383</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.3849499155912347</v>
+        <v>0.3664597973613917</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>2.493514502896064</v>
+        <v>2.427410237627871</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>2.437951833079794</v>
+        <v>2.543701746497486</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>2.420409997759227</v>
+        <v>2.545821705830588</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.602356550854719</v>
+        <v>1.675952328560864</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>3.221812754049036</v>
+        <v>3.150634699403278</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>3.983037929915396</v>
+        <v>3.7647133233544</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.341562206682648</v>
+        <v>1.195446151678175</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>2.205848131950688</v>
+        <v>2.141066567747929</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>2.348854414066195</v>
+        <v>2.629926722734308</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>0.6534370833717107</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>3.256756143368881</v>
+        <v>3.256756143368885</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>2.080454372047522</v>
@@ -1520,7 +1520,7 @@
         <v>2.054360268119563</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>4.818856765151241</v>
+        <v>4.81885676515124</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.6193961484699018</v>
+        <v>-0.5605194458982868</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.006068403524629216</v>
+        <v>-0.08617199860553358</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2.462003261952886</v>
+        <v>2.408350232544572</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1.033178803509545</v>
+        <v>1.02585798992892</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>2.151459828787971</v>
+        <v>2.219318712822931</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>5.168099912921846</v>
+        <v>5.276966729649633</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.379231518277254</v>
+        <v>0.4581380722805882</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>1.326531288482406</v>
+        <v>1.370546153456095</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>4.085593868676868</v>
+        <v>4.183154831867324</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.8554807894918726</v>
+        <v>0.8231901956652018</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.442743612703761</v>
+        <v>1.445645862274364</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>4.187045476659206</v>
+        <v>4.119020486296619</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>3.160326475441674</v>
+        <v>3.183507514343673</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>4.436512430132381</v>
+        <v>4.508900295181652</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>7.262939845261185</v>
+        <v>7.247671942528931</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>1.720015829794117</v>
+        <v>1.759940044462355</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>2.734782080219214</v>
+        <v>2.728091826453817</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>5.557208870040856</v>
+        <v>5.540687827953809</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>0.3384833324380832</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>1.687014251865803</v>
+        <v>1.687014251865805</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.5008405332640152</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.2752853012387302</v>
+        <v>-0.2551747710550488</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.00465535132415338</v>
+        <v>-0.05001033870139118</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>1.050956985374883</v>
+        <v>1.048755583822981</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.2100147985988633</v>
+        <v>0.2165316976900875</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.4613899961865291</v>
+        <v>0.4841346568374747</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>1.102888541291837</v>
+        <v>1.089667703260509</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1163795910978385</v>
+        <v>0.130101361242249</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.3948050197868843</v>
+        <v>0.4103810135276236</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>1.201303180800398</v>
+        <v>1.23412352191731</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.5392466596988893</v>
+        <v>0.4928369071605663</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.9556864926879878</v>
+        <v>0.8777925995632854</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>2.592198025984124</v>
+        <v>2.632388461437902</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.8240648184748772</v>
+        <v>0.8866300211978476</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>1.222085936357953</v>
+        <v>1.244748286771785</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>2.045275103700745</v>
+        <v>1.978003698266444</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.5997608867155403</v>
+        <v>0.6356195581887648</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.98376245083731</v>
+        <v>0.981342343872439</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>2.045273493320754</v>
+        <v>2.004989013873953</v>
       </c>
     </row>
     <row r="34">
